--- a/va_facility_data_2025-02-20/Charleston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Charleston%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Charleston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Charleston%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf470c33f9423458e94bdc231e96d23d5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra900d86fd6c342fa8c1a80431e74e50b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf17c125be54c478da292c142cdca2810"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdd24ed9935c943dbb92593272dbe5989"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R74e6878973674e52bb0647753df9e4b9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdf1d9edbb50a411b9ce24ad1da93d9b9"/>
   </x:sheets>
 </x:workbook>
 </file>
